--- a/generated_docs/WR_89881161_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89881161_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16784.55</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>82.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>858.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>187.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>73.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>18.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>285.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>35.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>79.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>95.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>82.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>376.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>187.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>18.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>124.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>79.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>6.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>26.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3427,7 +3427,7 @@
         </is>
       </c>
       <c r="H95" s="16" t="n">
-        <v>15327.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="H102" s="16" t="n">
-        <v>450.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="G107" s="10" t="inlineStr"/>
       <c r="H107" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="H108" s="16" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3730,7 +3730,7 @@
       </c>
       <c r="G113" s="10" t="inlineStr"/>
       <c r="H113" s="11" t="n">
-        <v>790.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>790.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/generated_docs/WR_89881161_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89881161_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>16974.85</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P59</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>858.75</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1033,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1067,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1101,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>187.26</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1169,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>73.73</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1203,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>18.51</v>
       </c>
     </row>
     <row r="30">
@@ -1241,7 +1237,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>285.45</v>
       </c>
     </row>
     <row r="31">
@@ -1271,11 +1267,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>285.45</v>
       </c>
     </row>
     <row r="32">
@@ -1309,7 +1305,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="33">
@@ -1343,7 +1339,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="34">
@@ -1377,7 +1373,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="35">
@@ -1411,7 +1407,7 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>79.56</v>
       </c>
     </row>
     <row r="36">
@@ -1445,7 +1441,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="37">
@@ -1479,7 +1475,7 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="38">
@@ -1513,7 +1509,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="39">
@@ -1547,7 +1543,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="40">
@@ -1581,7 +1577,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="41">
@@ -1615,7 +1611,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="42">
@@ -1649,7 +1645,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="43">
@@ -1683,7 +1679,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -1717,7 +1713,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="45">
@@ -1751,7 +1747,7 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="46">
@@ -1785,7 +1781,7 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="47">
@@ -1819,7 +1815,7 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="48">
@@ -1853,7 +1849,7 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="49">
@@ -1887,7 +1883,7 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>0</v>
+        <v>95.16</v>
       </c>
     </row>
     <row r="50">
@@ -1921,7 +1917,7 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="51">
@@ -1955,7 +1951,7 @@
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="52">
@@ -1989,7 +1985,7 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>0</v>
+        <v>376.68</v>
       </c>
     </row>
     <row r="53">
@@ -2023,7 +2019,7 @@
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="54">
@@ -2057,7 +2053,7 @@
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="55">
@@ -2091,7 +2087,7 @@
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="56">
@@ -2125,7 +2121,7 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="57">
@@ -2159,7 +2155,7 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>0</v>
+        <v>187.26</v>
       </c>
     </row>
     <row r="58">
@@ -2193,7 +2189,7 @@
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="59">
@@ -2227,7 +2223,7 @@
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="60">
@@ -2261,7 +2257,7 @@
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>0</v>
+        <v>18.51</v>
       </c>
     </row>
     <row r="61">
@@ -2295,7 +2291,7 @@
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>0</v>
+        <v>124.32</v>
       </c>
     </row>
     <row r="62">
@@ -2329,7 +2325,7 @@
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="63">
@@ -2363,7 +2359,7 @@
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="64">
@@ -2397,7 +2393,7 @@
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="65">
@@ -2431,7 +2427,7 @@
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>0</v>
+        <v>79.56</v>
       </c>
     </row>
     <row r="66">
@@ -2465,7 +2461,7 @@
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="67">
@@ -2499,7 +2495,7 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="68">
@@ -2533,7 +2529,7 @@
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="69">
@@ -2567,7 +2563,7 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="70">
@@ -2601,7 +2597,7 @@
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71">
@@ -2635,7 +2631,7 @@
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="72">
@@ -2669,7 +2665,7 @@
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="73">
@@ -2703,7 +2699,7 @@
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="74">
@@ -2737,7 +2733,7 @@
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="75">
@@ -2771,7 +2767,7 @@
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="76">
@@ -2805,7 +2801,7 @@
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="77">
@@ -2839,7 +2835,7 @@
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="78">
@@ -2873,7 +2869,7 @@
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79">
@@ -2907,7 +2903,7 @@
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="80">
@@ -2941,7 +2937,7 @@
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="81">
@@ -2975,7 +2971,7 @@
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="82">
@@ -3009,7 +3005,7 @@
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="83">
@@ -3043,7 +3039,7 @@
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84">
@@ -3077,7 +3073,7 @@
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="85">
@@ -3111,7 +3107,7 @@
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="86">
@@ -3145,7 +3141,7 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="87">
@@ -3179,7 +3175,7 @@
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="88">
@@ -3213,7 +3209,7 @@
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="89">
@@ -3247,7 +3243,7 @@
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="90">
@@ -3281,7 +3277,7 @@
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="91">
@@ -3315,7 +3311,7 @@
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="92">
@@ -3349,7 +3345,7 @@
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="93">
@@ -3383,7 +3379,7 @@
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="94">
@@ -3417,7 +3413,7 @@
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="95">
@@ -3427,7 +3423,7 @@
         </is>
       </c>
       <c r="H95" s="16" t="n">
-        <v>0</v>
+        <v>15517.95</v>
       </c>
     </row>
     <row r="98">
@@ -3510,7 +3506,7 @@
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="101">
@@ -3544,7 +3540,7 @@
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102">
@@ -3554,7 +3550,7 @@
         </is>
       </c>
       <c r="H102" s="16" t="n">
-        <v>0</v>
+        <v>450.17</v>
       </c>
     </row>
     <row r="105">
@@ -3637,7 +3633,7 @@
       </c>
       <c r="G107" s="10" t="inlineStr"/>
       <c r="H107" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="108">
@@ -3647,7 +3643,7 @@
         </is>
       </c>
       <c r="H108" s="16" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="111">
@@ -3730,7 +3726,7 @@
       </c>
       <c r="G113" s="10" t="inlineStr"/>
       <c r="H113" s="11" t="n">
-        <v>0</v>
+        <v>790.5599999999999</v>
       </c>
     </row>
     <row r="114">
@@ -3740,7 +3736,7 @@
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>0</v>
+        <v>790.5599999999999</v>
       </c>
     </row>
   </sheetData>
